--- a/xlsxmaps/level_0037.xlsx
+++ b/xlsxmaps/level_0037.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\三消\编辑关卡\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F05C8C-C963-4FED-8173-A3DF3766CF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B05422-8090-4E0A-88E4-1E7FC14CAF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="层" sheetId="25" r:id="rId1"/>
@@ -1272,7 +1272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98328020-202E-4617-B88F-D8CF9F0B37E4}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
@@ -1891,7 +1891,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1906,16 +1906,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="C1" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="D1" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="E1" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="F1" s="2">
         <v>0</v>
@@ -2202,7 +2202,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:E9"/>
+      <selection sqref="A1:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -2240,19 +2240,19 @@
     </row>
     <row r="2" spans="1:8" ht="20.25" customHeight="1">
       <c r="A2" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="B2" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="E2" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
@@ -2422,19 +2422,19 @@
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1">
       <c r="A9" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="B9" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="C9" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="D9" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="E9" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
@@ -2448,19 +2448,19 @@
     </row>
     <row r="10" spans="1:8" ht="20.25" customHeight="1">
       <c r="A10" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="B10" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="C10" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="D10" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="E10" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
@@ -2513,7 +2513,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -2554,16 +2554,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="C2" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="D2" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="E2" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
@@ -2733,22 +2733,22 @@
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1">
       <c r="A9" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="B9" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="C9" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="D9" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="E9" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="F9" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -2891,13 +2891,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="C3" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="D3" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -3205,10 +3205,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="D3" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -3446,7 +3446,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B3" sqref="B3:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -3539,13 +3539,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="C4" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="D4" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -3853,10 +3853,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="D4" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -4067,8 +4067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F7139C-20D3-4621-8277-80E90B32787C}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>

--- a/xlsxmaps/level_0037.xlsx
+++ b/xlsxmaps/level_0037.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\三消\编辑关卡\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B05422-8090-4E0A-88E4-1E7FC14CAF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6DE226-77C5-4B7D-A00B-EBB4C385B8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2513,7 +2513,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:G15"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -2733,7 +2733,7 @@
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1">
       <c r="A9" s="2">
-        <v>21000000</v>
+        <v>22000013</v>
       </c>
       <c r="B9" s="2">
         <v>21000000</v>
@@ -2748,7 +2748,7 @@
         <v>21000000</v>
       </c>
       <c r="F9" s="2">
-        <v>21000000</v>
+        <v>22000013</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -2824,7 +2824,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -2894,7 +2894,7 @@
         <v>21000000</v>
       </c>
       <c r="C3" s="2">
-        <v>21000000</v>
+        <v>22000013</v>
       </c>
       <c r="D3" s="2">
         <v>21000000</v>
@@ -4379,7 +4379,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:E10"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -6245,7 +6245,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:E10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -6289,7 +6289,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
+        <v>12000008</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
+        <v>12000008</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>

--- a/xlsxmaps/level_0037.xlsx
+++ b/xlsxmaps/level_0037.xlsx
@@ -1,39 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\三消\编辑关卡\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\接收文件\厨房\归档2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6DE226-77C5-4B7D-A00B-EBB4C385B8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2583485-F6C3-4037-A615-9CE8140B961B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="层" sheetId="25" r:id="rId1"/>
-    <sheet name="层 (2)" sheetId="55" r:id="rId2"/>
-    <sheet name="层 (3)" sheetId="56" r:id="rId3"/>
-    <sheet name="层 (4)" sheetId="57" r:id="rId4"/>
-    <sheet name="层 (5)" sheetId="58" r:id="rId5"/>
-    <sheet name="层 (6)" sheetId="59" r:id="rId6"/>
-    <sheet name="层 (7)" sheetId="62" r:id="rId7"/>
-    <sheet name="层 (8)" sheetId="63" r:id="rId8"/>
-    <sheet name="层 (9)" sheetId="64" r:id="rId9"/>
-    <sheet name="层 (10)" sheetId="65" r:id="rId10"/>
-    <sheet name="层 (11)" sheetId="66" r:id="rId11"/>
-    <sheet name="层 (12)" sheetId="67" r:id="rId12"/>
-    <sheet name="层 (13)" sheetId="68" r:id="rId13"/>
-    <sheet name="层 (14)" sheetId="69" r:id="rId14"/>
-    <sheet name="层 (15)" sheetId="70" r:id="rId15"/>
-    <sheet name="层 (16)" sheetId="71" r:id="rId16"/>
-    <sheet name="层 (17)" sheetId="72" r:id="rId17"/>
-    <sheet name="层 (18)" sheetId="73" r:id="rId18"/>
+    <sheet name="base" sheetId="74" r:id="rId1"/>
+    <sheet name="层" sheetId="25" r:id="rId2"/>
+    <sheet name="层 (2)" sheetId="55" r:id="rId3"/>
+    <sheet name="层 (3)" sheetId="56" r:id="rId4"/>
+    <sheet name="层 (4)" sheetId="57" r:id="rId5"/>
+    <sheet name="层 (5)" sheetId="58" r:id="rId6"/>
+    <sheet name="层 (6)" sheetId="59" r:id="rId7"/>
+    <sheet name="层 (7)" sheetId="62" r:id="rId8"/>
+    <sheet name="层 (8)" sheetId="63" r:id="rId9"/>
+    <sheet name="层 (9)" sheetId="64" r:id="rId10"/>
+    <sheet name="层 (10)" sheetId="65" r:id="rId11"/>
+    <sheet name="层 (11)" sheetId="66" r:id="rId12"/>
+    <sheet name="层 (12)" sheetId="67" r:id="rId13"/>
+    <sheet name="层 (13)" sheetId="68" r:id="rId14"/>
+    <sheet name="层 (14)" sheetId="69" r:id="rId15"/>
+    <sheet name="层 (15)" sheetId="70" r:id="rId16"/>
+    <sheet name="层 (16)" sheetId="71" r:id="rId17"/>
+    <sheet name="层 (17)" sheetId="72" r:id="rId18"/>
+    <sheet name="层 (18)" sheetId="73" r:id="rId19"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>layerlevel</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1,1,1,0,0,0,0,0,0,0,0</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -100,7 +112,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -108,6 +120,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1269,10 +1290,112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98328020-202E-4617-B88F-D8CF9F0B37E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E446E0F4-D109-4B24-BEE8-E2FDE71D4615}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="5" customWidth="1"/>
+    <col min="3" max="6" width="8.85546875" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B7DF7E-0952-41AA-9706-50D1D9108B1A}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
@@ -1283,10 +1406,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
       <c r="A1" s="2">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="C1" s="2">
         <v>0</v>
@@ -1295,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="2">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="F1" s="2">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="G1" s="2">
         <v>0</v>
@@ -1347,10 +1470,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -1387,10 +1510,10 @@
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1">
       <c r="A5" s="2">
-        <v>0</v>
+        <v>11000000</v>
       </c>
       <c r="B5" s="2">
-        <v>0</v>
+        <v>11000000</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -1439,10 +1562,10 @@
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="2">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="B7" s="2">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -1451,10 +1574,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
+        <v>11000000</v>
       </c>
       <c r="F7" s="2">
-        <v>0</v>
+        <v>11000000</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -1494,16 +1617,16 @@
         <v>0</v>
       </c>
       <c r="B9" s="2">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="C9" s="2">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
@@ -1520,16 +1643,16 @@
         <v>0</v>
       </c>
       <c r="B10" s="2">
-        <v>0</v>
+        <v>11000000</v>
       </c>
       <c r="C10" s="2">
-        <v>0</v>
+        <v>11000000</v>
       </c>
       <c r="D10" s="2">
-        <v>0</v>
+        <v>11000000</v>
       </c>
       <c r="E10" s="2">
-        <v>0</v>
+        <v>11000000</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
@@ -1577,7 +1700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47787EE9-DC6A-47E1-A4F8-163C0162C8D6}">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -1886,7 +2009,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3DAD07-935C-4E29-83CF-92A60B0F5529}">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -2197,7 +2320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2D64C8-03DC-4DE1-AC4B-22B17A9DC1FD}">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -2508,7 +2631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0951EBFD-5DD8-40A9-8A29-1A3F71DB1786}">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -2819,7 +2942,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16DFA515-6D0B-45C0-946D-4F92DB1B9995}">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -3130,7 +3253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8534D9E5-A433-4AD5-8988-85D11E44D491}">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -3441,7 +3564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98AE1C54-4650-43DF-A7D5-5F64EED25035}">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -3752,7 +3875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE482A5F-4CB4-4A15-A990-CB2848E13709}">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -4063,11 +4186,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F7139C-20D3-4621-8277-80E90B32787C}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -4375,6 +4498,315 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98328020-202E-4617-B88F-D8CF9F0B37E4}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <cols>
+    <col min="1" max="4" width="16.28515625" style="1"/>
+    <col min="5" max="8" width="16.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="16.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A1" s="2">
+        <v>11000000</v>
+      </c>
+      <c r="B1" s="2">
+        <v>11000000</v>
+      </c>
+      <c r="C1" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2">
+        <v>11000000</v>
+      </c>
+      <c r="F1" s="2">
+        <v>11000000</v>
+      </c>
+      <c r="G1" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>11000000</v>
+      </c>
+      <c r="F3" s="2">
+        <v>11000000</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A7" s="2">
+        <v>11000000</v>
+      </c>
+      <c r="B7" s="2">
+        <v>11000000</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A8" s="2">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A9" s="2">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2">
+        <v>11000000</v>
+      </c>
+      <c r="C9" s="2">
+        <v>11000000</v>
+      </c>
+      <c r="D9" s="2">
+        <v>11000000</v>
+      </c>
+      <c r="E9" s="2">
+        <v>11000000</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A10" s="2">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A11" s="2">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3696DB0-7A8C-497C-90FD-86688DA1382F}">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -4685,7 +5117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C01DCB00-9CDF-4E08-B131-0C63335D0563}">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -4996,7 +5428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18014C58-377C-4889-9C4A-EFB1DD114C69}">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -5307,7 +5739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F2C729-1956-4E21-AAEF-F65168CE7A13}">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -5618,7 +6050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4ED1227-7749-4A5B-867C-368FE4E864C0}">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -5929,7 +6361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE281B4-3F2C-472E-BC08-17008519798E}">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -6240,7 +6672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1098F1BA-EB61-4C0E-93BE-D988C9F3EC98}">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -6549,315 +6981,4 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B7DF7E-0952-41AA-9706-50D1D9108B1A}">
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
-  <cols>
-    <col min="1" max="4" width="16.28515625" style="1"/>
-    <col min="5" max="8" width="16.28515625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="16.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2">
-        <v>0</v>
-      </c>
-      <c r="H1" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A3" s="2">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A4" s="2">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A5" s="2">
-        <v>11000000</v>
-      </c>
-      <c r="B5" s="2">
-        <v>11000000</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A6" s="2">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A7" s="2">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>11000000</v>
-      </c>
-      <c r="F7" s="2">
-        <v>11000000</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A8" s="2">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A9" s="2">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A10" s="2">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2">
-        <v>11000000</v>
-      </c>
-      <c r="C10" s="2">
-        <v>11000000</v>
-      </c>
-      <c r="D10" s="2">
-        <v>11000000</v>
-      </c>
-      <c r="E10" s="2">
-        <v>11000000</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A11" s="2">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="72" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>